--- a/data/CHN-TROMSO.xlsx
+++ b/data/CHN-TROMSO.xlsx
@@ -8,14 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anaislebrun/Desktop/These/Meso Tromso 2022/MHV_Tromso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E3DAA1-FA91-384F-9682-5F587078D3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA4F221-683B-714B-9A4C-AEDEE3ADF445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-7600" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
